--- a/cursos/2021-2022/alumnos/1_STI-CIST.xlsx
+++ b/cursos/2021-2022/alumnos/1_STI-CIST.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10315"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cferrerobonet/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cferrerobonet/Documents/04 DESARROLLADOR/Web/EPLA/AUTOEXAM/cursos/2021-2022/alumnos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F1ED1B1-A8D7-BD49-B43C-1EB260C509E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C844E053-DA19-BA4C-A2D2-2FFDF7EA9BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13440" yWindow="760" windowWidth="16800" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>ASIGNATURA:</t>
   </si>
@@ -42,91 +42,7 @@
     <t>CIST</t>
   </si>
   <si>
-    <t>ALBERT GARRIDO, ISMAEL</t>
-  </si>
-  <si>
-    <t>BAÑÓN TERUEL, GONZALO</t>
-  </si>
-  <si>
-    <t>BAREA COSTA, ÓSCAR</t>
-  </si>
-  <si>
-    <t>CAMPOS ESTÍVALIS, SAÚL</t>
-  </si>
-  <si>
-    <t>CARREÑO ESCOBAR, AMILCAR</t>
-  </si>
-  <si>
-    <t>EL GUELAY IZQUIERDO, AITOR</t>
-  </si>
-  <si>
-    <t>FLORS RODRÍGUEZ, ENRIQUE</t>
-  </si>
-  <si>
-    <t>FONT ROMERO, ERIC JOSÉ</t>
-  </si>
-  <si>
-    <t>GARCÍA VILLENA, ADRIÁN</t>
-  </si>
-  <si>
-    <t>HERRERO CRUCERA, MARIO</t>
-  </si>
-  <si>
-    <t>MADRIGAL FRANCO, CARLES</t>
-  </si>
-  <si>
-    <t>MARGARIT VILLAMIZAR, DANIEL</t>
-  </si>
-  <si>
-    <t>MILÁN PAZ, DAVID</t>
-  </si>
-  <si>
-    <t>MONTES GEA, JOSÉ ANTONIO</t>
-  </si>
-  <si>
-    <t>NAVARRÉ PÉREZ, RUBÉN</t>
-  </si>
-  <si>
-    <t>QUISHPE ALDAZ, JORGE ESTEBAN</t>
-  </si>
-  <si>
-    <t>SALES MORENO, MARIANO</t>
-  </si>
-  <si>
-    <t>SALVADOR GUILLOT, NACHO</t>
-  </si>
-  <si>
-    <t>SANTAEULALIA GÓMEZ, MIGUEL ANGEL</t>
-  </si>
-  <si>
-    <t>SANTAMARÍA JUÁREZ, ADRIÁN</t>
-  </si>
-  <si>
-    <t>SERRANO CEREZO, ALBERTO</t>
-  </si>
-  <si>
-    <t>SOMOZA SEVILLA, HÉCTOR</t>
-  </si>
-  <si>
-    <t>VALERO HERRERA, BORJA</t>
-  </si>
-  <si>
-    <t>VALLS CAMPOS, PEDRO ADRIÁN</t>
-  </si>
-  <si>
-    <t>VIANA CANET, JOSÉ</t>
-  </si>
-  <si>
-    <t>ZAMORA MONTAÑÉS, ALONSO</t>
-  </si>
-  <si>
     <t>_Ferrero Bonet, Carlos</t>
-  </si>
-  <si>
-    <t>LISTAR , GABRIEL SEBASTIÁN</t>
-  </si>
-  <si>
-    <t>OSSAI  ABENG, MIGUEL AGUSTÍN</t>
   </si>
 </sst>
 </file>
@@ -205,12 +121,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -500,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A4" sqref="A4:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -513,16 +426,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
     </row>
     <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -530,169 +443,8 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
